--- a/Raspberry GUI/Aquapo.xlsx
+++ b/Raspberry GUI/Aquapo.xlsx
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
